--- a/excercises/excercises/70.ESP.xlsx
+++ b/excercises/excercises/70.ESP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4FD72C-B93F-4E5F-AB69-7D28964164C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3A5FF4-252C-495C-B81B-9644D6C3C63D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESP" sheetId="110" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <definedName name="Tres_" localSheetId="0">ESP!$C$13</definedName>
     <definedName name="Udl_" localSheetId="0">ESP!$C$19</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1219,64 +1219,64 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.5</c:v>
+                  <c:v>52.920168067226996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>105.84033613445399</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.5</c:v>
+                  <c:v>158.76050420168099</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46</c:v>
+                  <c:v>211.68067226890798</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.5</c:v>
+                  <c:v>264.60084033613498</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69</c:v>
+                  <c:v>317.52100840336198</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.5</c:v>
+                  <c:v>370.44117647058897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92</c:v>
+                  <c:v>423.36134453781597</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>103.5</c:v>
+                  <c:v>476.28151260504296</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>115</c:v>
+                  <c:v>529.20168067226996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>126.5</c:v>
+                  <c:v>582.12184873949695</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>138</c:v>
+                  <c:v>635.04201680672395</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>149.5</c:v>
+                  <c:v>687.96218487395095</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>161</c:v>
+                  <c:v>740.88235294117794</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>172.5</c:v>
+                  <c:v>793.80252100840494</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>184</c:v>
+                  <c:v>846.72268907563193</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>195.5</c:v>
+                  <c:v>899.64285714285893</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>207</c:v>
+                  <c:v>952.56302521008593</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>218.5</c:v>
+                  <c:v>1005.4831932773129</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>230</c:v>
+                  <c:v>1058.4033613445399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1288,67 +1288,67 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2177.7038598350264</c:v>
+                  <c:v>2024.4243020976137</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2155.0796090898484</c:v>
+                  <c:v>2020.5169378933356</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2153.4436231720601</c:v>
+                  <c:v>1992.3772994756368</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2164.5150132826443</c:v>
+                  <c:v>1949.8754209286851</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2178.2139599650986</c:v>
+                  <c:v>1900.5286680580471</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2186.1582001833112</c:v>
+                  <c:v>1849.5102721300209</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2181.5694293950837</c:v>
+                  <c:v>1799.8896840267992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2159.1797036256626</c:v>
+                  <c:v>1752.8729284016217</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2115.1378415412596</c:v>
+                  <c:v>1708.0429578339363</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2046.9158265225844</c:v>
+                  <c:v>1663.6000069845586</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1953.2152087383711</c:v>
+                  <c:v>1616.6019467508263</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1833.8735072188988</c:v>
+                  <c:v>1563.2046384217617</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1689.7706119295246</c:v>
+                  <c:v>1498.9022878332253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1522.7351858442096</c:v>
+                  <c:v>1418.7677995230786</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1335.4510670190416</c:v>
+                  <c:v>1317.6931308863382</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1131.3636706657694</c:v>
+                  <c:v>1190.6296463303365</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>914.58639122531849</c:v>
+                  <c:v>1032.8284714298809</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>689.80700444132776</c:v>
+                  <c:v>840.08084708240904</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>462.19406943367369</c:v>
+                  <c:v>608.95848366314556</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>237.30333077199134</c:v>
+                  <c:v>337.0539151802663</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20.984120549215934</c:v>
+                  <c:v>23.220853430049914</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1422,64 +1422,64 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.5</c:v>
+                  <c:v>52.920168067226996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>105.84033613445399</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.5</c:v>
+                  <c:v>158.76050420168099</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46</c:v>
+                  <c:v>211.68067226890798</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.5</c:v>
+                  <c:v>264.60084033613498</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69</c:v>
+                  <c:v>317.52100840336198</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.5</c:v>
+                  <c:v>370.44117647058897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92</c:v>
+                  <c:v>423.36134453781597</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>103.5</c:v>
+                  <c:v>476.28151260504296</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>115</c:v>
+                  <c:v>529.20168067226996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>126.5</c:v>
+                  <c:v>582.12184873949695</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>138</c:v>
+                  <c:v>635.04201680672395</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>149.5</c:v>
+                  <c:v>687.96218487395095</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>161</c:v>
+                  <c:v>740.88235294117794</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>172.5</c:v>
+                  <c:v>793.80252100840494</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>184</c:v>
+                  <c:v>846.72268907563193</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>195.5</c:v>
+                  <c:v>899.64285714285893</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>207</c:v>
+                  <c:v>952.56302521008593</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>218.5</c:v>
+                  <c:v>1005.4831932773129</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>230</c:v>
+                  <c:v>1058.4033613445399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1491,67 +1491,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.02094510249169E-2</c:v>
+                  <c:v>4.2845437245921641E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4948597208333356E-2</c:v>
+                  <c:v>0.13149902286193813</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14770494788119301</c:v>
+                  <c:v>0.24706607377105821</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22007074560149578</c:v>
+                  <c:v>0.34661116319352486</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28974697934124621</c:v>
+                  <c:v>0.42972372783160095</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.35456296862333708</c:v>
+                  <c:v>0.49709502902769309</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.41250634910674744</c:v>
+                  <c:v>0.5502216018699756</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.46175305817174056</c:v>
+                  <c:v>0.59110870429801454</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5006973205050621</c:v>
+                  <c:v>0.62197376620839051</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.52798163368513795</c:v>
+                  <c:v>0.6449498385603244</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.54252675376727288</c:v>
+                  <c:v>0.66178904248129911</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.54356168086884704</c:v>
+                  <c:v>0.67356601837268415</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.53065364475451593</c:v>
+                  <c:v>0.68038137501536056</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.50373809042140771</c:v>
+                  <c:v>0.68106513867534202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.46314866368431995</c:v>
+                  <c:v>0.67288020220940226</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.4096471967609201</c:v>
+                  <c:v>0.65122577417069416</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.34445369385694047</c:v>
+                  <c:v>0.60934082791437927</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.26927631675138031</c:v>
+                  <c:v>0.53800755070324824</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.18634137038169934</c:v>
+                  <c:v>0.42525479281334011</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.8423288429019706E-2</c:v>
+                  <c:v>0.25606151663958077</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.8746189033200862E-3</c:v>
+                  <c:v>1.2060245801388092E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2137,64 +2137,64 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.5</c:v>
+                  <c:v>52.920168067226996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>105.84033613445399</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.5</c:v>
+                  <c:v>158.76050420168099</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46</c:v>
+                  <c:v>211.68067226890798</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.5</c:v>
+                  <c:v>264.60084033613498</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69</c:v>
+                  <c:v>317.52100840336198</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.5</c:v>
+                  <c:v>370.44117647058897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92</c:v>
+                  <c:v>423.36134453781597</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>103.5</c:v>
+                  <c:v>476.28151260504296</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>115</c:v>
+                  <c:v>529.20168067226996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>126.5</c:v>
+                  <c:v>582.12184873949695</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>138</c:v>
+                  <c:v>635.04201680672395</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>149.5</c:v>
+                  <c:v>687.96218487395095</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>161</c:v>
+                  <c:v>740.88235294117794</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>172.5</c:v>
+                  <c:v>793.80252100840494</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>184</c:v>
+                  <c:v>846.72268907563193</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>195.5</c:v>
+                  <c:v>899.64285714285893</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>207</c:v>
+                  <c:v>952.56302521008593</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>218.5</c:v>
+                  <c:v>1005.4831932773129</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>230</c:v>
+                  <c:v>1058.4033613445399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2206,67 +2206,67 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2177.7038598350264</c:v>
+                  <c:v>2024.4243020976137</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2155.0796090898484</c:v>
+                  <c:v>2020.5169378933356</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2153.4436231720601</c:v>
+                  <c:v>1992.3772994756368</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2164.5150132826443</c:v>
+                  <c:v>1949.8754209286851</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2178.2139599650986</c:v>
+                  <c:v>1900.5286680580471</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2186.1582001833112</c:v>
+                  <c:v>1849.5102721300209</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2181.5694293950837</c:v>
+                  <c:v>1799.8896840267992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2159.1797036256626</c:v>
+                  <c:v>1752.8729284016217</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2115.1378415412596</c:v>
+                  <c:v>1708.0429578339363</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2046.9158265225844</c:v>
+                  <c:v>1663.6000069845586</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1953.2152087383711</c:v>
+                  <c:v>1616.6019467508263</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1833.8735072188988</c:v>
+                  <c:v>1563.2046384217617</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1689.7706119295246</c:v>
+                  <c:v>1498.9022878332253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1522.7351858442096</c:v>
+                  <c:v>1418.7677995230786</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1335.4510670190416</c:v>
+                  <c:v>1317.6931308863382</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1131.3636706657694</c:v>
+                  <c:v>1190.6296463303365</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>914.58639122531849</c:v>
+                  <c:v>1032.8284714298809</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>689.80700444132776</c:v>
+                  <c:v>840.08084708240904</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>462.19406943367369</c:v>
+                  <c:v>608.95848366314556</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>237.30333077199134</c:v>
+                  <c:v>337.0539151802663</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20.984120549215934</c:v>
+                  <c:v>23.220853430049914</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2340,64 +2340,64 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.5</c:v>
+                  <c:v>52.920168067226996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>105.84033613445399</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.5</c:v>
+                  <c:v>158.76050420168099</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46</c:v>
+                  <c:v>211.68067226890798</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.5</c:v>
+                  <c:v>264.60084033613498</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69</c:v>
+                  <c:v>317.52100840336198</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.5</c:v>
+                  <c:v>370.44117647058897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92</c:v>
+                  <c:v>423.36134453781597</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>103.5</c:v>
+                  <c:v>476.28151260504296</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>115</c:v>
+                  <c:v>529.20168067226996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>126.5</c:v>
+                  <c:v>582.12184873949695</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>138</c:v>
+                  <c:v>635.04201680672395</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>149.5</c:v>
+                  <c:v>687.96218487395095</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>161</c:v>
+                  <c:v>740.88235294117794</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>172.5</c:v>
+                  <c:v>793.80252100840494</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>184</c:v>
+                  <c:v>846.72268907563193</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>195.5</c:v>
+                  <c:v>899.64285714285893</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>207</c:v>
+                  <c:v>952.56302521008593</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>218.5</c:v>
+                  <c:v>1005.4831932773129</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>230</c:v>
+                  <c:v>1058.4033613445399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2409,67 +2409,67 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>34489.160642996467</c:v>
+                  <c:v>76803.860106059175</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35543.191344898885</c:v>
+                  <c:v>86324.303596685437</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36837.222463369806</c:v>
+                  <c:v>93625.307611725177</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38177.816369012093</c:v>
+                  <c:v>99742.016617001282</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39502.006083603352</c:v>
+                  <c:v>105537.22089012666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40780.061560281414</c:v>
+                  <c:v>111537.22999824786</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42008.326331975681</c:v>
+                  <c:v>117983.93235985051</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43202.054159838532</c:v>
+                  <c:v>124886.85480656574</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44388.245681676708</c:v>
+                  <c:v>132075.22214497562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45598.485060382707</c:v>
+                  <c:v>139250.01671841939</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>46861.776632366156</c:v>
+                  <c:v>146036.03796879912</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>48197.381555985216</c:v>
+                  <c:v>152033.96199838593</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>49607.654459978017</c:v>
+                  <c:v>156872.40113162549</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>51070.880091893952</c:v>
+                  <c:v>160259.96347694422</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>52534.109966525131</c:v>
+                  <c:v>162037.31248855498</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>53905.999014337751</c:v>
+                  <c:v>162229.22652826336</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>55049.642229903497</c:v>
+                  <c:v>161096.65842727292</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>55775.411320330881</c:v>
+                  <c:v>159188.79504799168</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>55833.791353696841</c:v>
+                  <c:v>157395.11684583852</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>54908.217407477758</c:v>
+                  <c:v>156997.45743104647</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>52607.911216981076</c:v>
+                  <c:v>159722.06313047188</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3043,64 +3043,64 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.5</c:v>
+                  <c:v>52.920168067226996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>105.84033613445399</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.5</c:v>
+                  <c:v>158.76050420168099</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46</c:v>
+                  <c:v>211.68067226890798</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.5</c:v>
+                  <c:v>264.60084033613498</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69</c:v>
+                  <c:v>317.52100840336198</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.5</c:v>
+                  <c:v>370.44117647058897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92</c:v>
+                  <c:v>423.36134453781597</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>103.5</c:v>
+                  <c:v>476.28151260504296</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>115</c:v>
+                  <c:v>529.20168067226996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>126.5</c:v>
+                  <c:v>582.12184873949695</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>138</c:v>
+                  <c:v>635.04201680672395</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>149.5</c:v>
+                  <c:v>687.96218487395095</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>161</c:v>
+                  <c:v>740.88235294117794</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>172.5</c:v>
+                  <c:v>793.80252100840494</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>184</c:v>
+                  <c:v>846.72268907563193</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>195.5</c:v>
+                  <c:v>899.64285714285893</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>207</c:v>
+                  <c:v>952.56302521008593</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>218.5</c:v>
+                  <c:v>1005.4831932773129</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>230</c:v>
+                  <c:v>1058.4033613445399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3112,31 +3112,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>92.158815415853496</c:v>
+                  <c:v>77.486460064061447</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>144.44822794241153</c:v>
+                  <c:v>136.40005859263061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>149.2152089137407</c:v>
+                  <c:v>134.25283355505113</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>151.53442935936474</c:v>
+                  <c:v>129.55896132487385</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>151.86480622847776</c:v>
+                  <c:v>124.32912107182585</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>149.12891099264306</c:v>
+                  <c:v>118.97004270113328</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>141.61663407118482</c:v>
+                  <c:v>112.57883070178053</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>125.96224353585833</c:v>
+                  <c:v>103.62864821928306</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>87.634642466785294</c:v>
+                  <c:v>84.145987814340188</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -3246,64 +3246,64 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.5</c:v>
+                  <c:v>52.920168067226996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>105.84033613445399</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.5</c:v>
+                  <c:v>158.76050420168099</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46</c:v>
+                  <c:v>211.68067226890798</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.5</c:v>
+                  <c:v>264.60084033613498</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69</c:v>
+                  <c:v>317.52100840336198</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.5</c:v>
+                  <c:v>370.44117647058897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92</c:v>
+                  <c:v>423.36134453781597</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>103.5</c:v>
+                  <c:v>476.28151260504296</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>115</c:v>
+                  <c:v>529.20168067226996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>126.5</c:v>
+                  <c:v>582.12184873949695</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>138</c:v>
+                  <c:v>635.04201680672395</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>149.5</c:v>
+                  <c:v>687.96218487395095</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>161</c:v>
+                  <c:v>740.88235294117794</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>172.5</c:v>
+                  <c:v>793.80252100840494</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>184</c:v>
+                  <c:v>846.72268907563193</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>195.5</c:v>
+                  <c:v>899.64285714285893</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>207</c:v>
+                  <c:v>952.56302521008593</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>218.5</c:v>
+                  <c:v>1005.4831932773129</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>230</c:v>
+                  <c:v>1058.4033613445399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3318,28 +3318,28 @@
                   <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>86.321664999510404</c:v>
+                  <c:v>42.833751253319008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41.828433680022485</c:v>
+                  <c:v>19.731877046106689</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.323782378181193</c:v>
+                  <c:v>11.914622666376445</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.390096268582468</c:v>
+                  <c:v>8.1899168504748019</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.629339492085819</c:v>
+                  <c:v>6.1313960967266752</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.60684269886778</c:v>
+                  <c:v>4.8609233167020989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.776136470432661</c:v>
+                  <c:v>4.0473989225457672</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0281717200926863</c:v>
+                  <c:v>3.6380527847298936</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -3816,64 +3816,64 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.5</c:v>
+                  <c:v>52.920168067226996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>105.84033613445399</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.5</c:v>
+                  <c:v>158.76050420168099</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46</c:v>
+                  <c:v>211.68067226890798</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.5</c:v>
+                  <c:v>264.60084033613498</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69</c:v>
+                  <c:v>317.52100840336198</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.5</c:v>
+                  <c:v>370.44117647058897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92</c:v>
+                  <c:v>423.36134453781597</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>103.5</c:v>
+                  <c:v>476.28151260504296</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>115</c:v>
+                  <c:v>529.20168067226996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>126.5</c:v>
+                  <c:v>582.12184873949695</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>138</c:v>
+                  <c:v>635.04201680672395</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>149.5</c:v>
+                  <c:v>687.96218487395095</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>161</c:v>
+                  <c:v>740.88235294117794</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>172.5</c:v>
+                  <c:v>793.80252100840494</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>184</c:v>
+                  <c:v>846.72268907563193</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>195.5</c:v>
+                  <c:v>899.64285714285893</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>207</c:v>
+                  <c:v>952.56302521008593</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>218.5</c:v>
+                  <c:v>1005.4831932773129</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>230</c:v>
+                  <c:v>1058.4033613445399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3885,31 +3885,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>92.158815415853496</c:v>
+                  <c:v>77.486460064061447</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>144.44822794241153</c:v>
+                  <c:v>136.40005859263061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>149.2152089137407</c:v>
+                  <c:v>134.25283355505113</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>151.53442935936474</c:v>
+                  <c:v>129.55896132487385</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>151.86480622847776</c:v>
+                  <c:v>124.32912107182585</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>149.12891099264306</c:v>
+                  <c:v>118.97004270113328</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>141.61663407118482</c:v>
+                  <c:v>112.57883070178053</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>125.96224353585833</c:v>
+                  <c:v>103.62864821928306</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>87.634642466785294</c:v>
+                  <c:v>84.145987814340188</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -3981,64 +3981,64 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.5</c:v>
+                  <c:v>52.920168067226996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>105.84033613445399</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.5</c:v>
+                  <c:v>158.76050420168099</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46</c:v>
+                  <c:v>211.68067226890798</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.5</c:v>
+                  <c:v>264.60084033613498</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69</c:v>
+                  <c:v>317.52100840336198</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.5</c:v>
+                  <c:v>370.44117647058897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92</c:v>
+                  <c:v>423.36134453781597</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>103.5</c:v>
+                  <c:v>476.28151260504296</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>115</c:v>
+                  <c:v>529.20168067226996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>126.5</c:v>
+                  <c:v>582.12184873949695</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>138</c:v>
+                  <c:v>635.04201680672395</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>149.5</c:v>
+                  <c:v>687.96218487395095</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>161</c:v>
+                  <c:v>740.88235294117794</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>172.5</c:v>
+                  <c:v>793.80252100840494</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>184</c:v>
+                  <c:v>846.72268907563193</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>195.5</c:v>
+                  <c:v>899.64285714285893</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>207</c:v>
+                  <c:v>952.56302521008593</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>218.5</c:v>
+                  <c:v>1005.4831932773129</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>230</c:v>
+                  <c:v>1058.4033613445399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4431,64 +4431,64 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.5</c:v>
+                  <c:v>52.920168067226996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>105.84033613445399</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.5</c:v>
+                  <c:v>158.76050420168099</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46</c:v>
+                  <c:v>211.68067226890798</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.5</c:v>
+                  <c:v>264.60084033613498</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69</c:v>
+                  <c:v>317.52100840336198</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.5</c:v>
+                  <c:v>370.44117647058897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92</c:v>
+                  <c:v>423.36134453781597</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>103.5</c:v>
+                  <c:v>476.28151260504296</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>115</c:v>
+                  <c:v>529.20168067226996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>126.5</c:v>
+                  <c:v>582.12184873949695</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>138</c:v>
+                  <c:v>635.04201680672395</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>149.5</c:v>
+                  <c:v>687.96218487395095</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>161</c:v>
+                  <c:v>740.88235294117794</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>172.5</c:v>
+                  <c:v>793.80252100840494</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>184</c:v>
+                  <c:v>846.72268907563193</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>195.5</c:v>
+                  <c:v>899.64285714285893</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>207</c:v>
+                  <c:v>952.56302521008593</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>218.5</c:v>
+                  <c:v>1005.4831932773129</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>230</c:v>
+                  <c:v>1058.4033613445399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4500,58 +4500,58 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>19.63524793883451</c:v>
+                  <c:v>23.622971845754179</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.101770826480021</c:v>
+                  <c:v>24.219045857925707</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.888052109725862</c:v>
+                  <c:v>25.997400193977512</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.3849755135154</c:v>
+                  <c:v>28.097758047439569</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.102114703471187</c:v>
+                  <c:v>30.258559613323996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.815318212618067</c:v>
+                  <c:v>32.46679114873217</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.212675462192436</c:v>
+                  <c:v>34.811211782137462</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32.105404323559398</c:v>
+                  <c:v>37.472159487823546</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36.392865979782812</c:v>
+                  <c:v>40.480488411142304</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41.055850151254191</c:v>
+                  <c:v>43.909466253416824</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>46.118936251922833</c:v>
+                  <c:v>47.799163332229796</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>51.677661266006311</c:v>
+                  <c:v>52.254551258830006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>57.959432061843984</c:v>
+                  <c:v>57.281701699117178</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>65.510471412829901</c:v>
+                  <c:v>63.181300916506103</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>76.037946397137489</c:v>
+                  <c:v>70.631806015070254</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>93.933556515037949</c:v>
+                  <c:v>82.522143309512643</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>113.74678653187701</c:v>
+                  <c:v>102.47700435111199</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>133.40052321462497</c:v>
+                  <c:v>126.42618442015204</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>150</c:v>
@@ -6272,7 +6272,6 @@
       <definedName name="ESP_eff_fr"/>
       <definedName name="ESP_encode_string"/>
       <definedName name="ESP_head_m"/>
-      <definedName name="ESP_id_by_rate"/>
       <definedName name="ESP_max_rate_m3day"/>
       <definedName name="ESP_name"/>
       <definedName name="ESP_power_W"/>
@@ -6877,14 +6876,14 @@
   </sheetPr>
   <dimension ref="A1:AK184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD27" sqref="AD27"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D31" sqref="D30:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" customWidth="1"/>
@@ -7262,8 +7261,7 @@
         <v>66</v>
       </c>
       <c r="C37" s="13">
-        <f>[1]!ESP_id_by_rate(Q_ESP_)</f>
-        <v>737</v>
+        <v>200</v>
       </c>
       <c r="D37" s="18"/>
       <c r="G37" s="19" t="s">
@@ -7276,12 +7274,12 @@
       </c>
       <c r="C38" s="13" t="str">
         <f>[1]!ESP_name(C37)</f>
-        <v>ВНН5-125</v>
+        <v>ESP 538-5000 CP</v>
       </c>
       <c r="D38" s="18"/>
       <c r="G38" s="10" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_,Bob_,mu,,KsepGasSep_,PKsep,TKsep)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,900;pksep_atma:80,000;tksep_C:80,000;</v>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,900;pksep_atma:80,000;tksep_C:80,000;gas_only:False;</v>
       </c>
       <c r="H38" s="25"/>
       <c r="I38" s="25"/>
@@ -7309,7 +7307,7 @@
       </c>
       <c r="C39" s="13">
         <f>[1]!ESP_max_rate_m3day(Freq_,PumpID_)*1</f>
-        <v>230</v>
+        <v>1058.4033613445399</v>
       </c>
       <c r="D39" s="18"/>
     </row>
@@ -7319,7 +7317,7 @@
       </c>
       <c r="C40" s="13">
         <f>INT(Head_ESP_/[1]!ESP_head_m(Q_ESP_,1,,PumpID_))</f>
-        <v>324</v>
+        <v>137</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>8</v>
@@ -7338,7 +7336,7 @@
       <c r="D41" s="18"/>
       <c r="G41" s="10" t="str">
         <f>[1]!ESP_encode_string(PumpID_,Head_ESP_,Freq_)</f>
-        <v>ESP_ID:737,00000;HeadNom_m:2000,00000;ESPfreq_Hz:50,00000;ESP_U_V:1000,00000;MotorPowerNom_kW:30,00000;t_intake_C:85,00000;t_dis_C:85,00000;KsepGS_fr:0,00000;ESP_energy_fact_Whday:0,00000;ESP_cable_type:0;ESP_Hmes_m:0,00000;ESP_gas_degradation_type:0;c_calibr_head:0,00000;c_calibr_rate:0,00000;c_calibr_power:0,00000;PKV_work_min:-1,00000;PKV_stop_min:-1,00000;</v>
+        <v>ESP_ID:200,00000;HeadNom_m:2000,00000;ESPfreq_Hz:50,00000;ESP_U_V:1000,00000;MotorPowerNom_kW:30,00000;t_intake_C:85,00000;t_dis_C:85,00000;KsepGS_fr:0,00000;ESP_energy_fact_Whday:0,00000;ESP_cable_type:0;ESP_Hmes_m:0,00000;ESP_gas_degradation_type:0;c_calibr_head:0,00000;c_calibr_rate:0,00000;c_calibr_power:0,00000;PKV_work_min:-1,00000;PKV_stop_min:-1,00000;cos_phi:-1,00000;</v>
       </c>
       <c r="H41" s="25"/>
       <c r="I41" s="25"/>
@@ -7525,375 +7523,375 @@
       </c>
       <c r="D54" s="16">
         <f>[1]!ESP_head_m(C54,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>2177.7038598350264</v>
+        <v>2024.4243020976137</v>
       </c>
       <c r="E54" s="23">
         <f>[1]!ESP_eff_fr(C54,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>1.02094510249169E-2</v>
+        <v>4.2845437245921641E-3</v>
       </c>
       <c r="F54" s="16">
         <f>[1]!ESP_power_W(C54,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>34489.160642996467</v>
+        <v>76803.860106059175</v>
       </c>
       <c r="G54" s="23">
         <f t="array" ref="G54:H54">[1]!ESP_dp_atm(C54,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>92.158815415853496</v>
+        <v>77.486460064061447</v>
       </c>
       <c r="H54" s="23">
         <v>219</v>
       </c>
       <c r="I54" s="24">
         <f t="shared" ref="I54" si="0">G54+Pintake_</f>
-        <v>126.1588154158535</v>
+        <v>111.48646006406145</v>
       </c>
       <c r="J54" s="24">
         <f t="array" ref="J54:K54">[1]!ESP_dp_atm(C54,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>130.36475206116549</v>
+        <v>126.37702815424582</v>
       </c>
       <c r="K54" s="24">
         <v>0</v>
       </c>
       <c r="L54" s="24">
         <f t="shared" ref="L54" si="1">Pdis-J54</f>
-        <v>19.63524793883451</v>
+        <v>23.622971845754179</v>
       </c>
     </row>
     <row r="55" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C55" s="6">
         <f>B95+Qmax/20</f>
-        <v>11.5</v>
+        <v>52.920168067226996</v>
       </c>
       <c r="D55" s="16">
         <f>[1]!ESP_head_m(C55,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>2155.0796090898484</v>
+        <v>2020.5169378933356</v>
       </c>
       <c r="E55" s="23">
         <f>[1]!ESP_eff_fr(C55,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>7.4948597208333356E-2</v>
+        <v>0.13149902286193813</v>
       </c>
       <c r="F55" s="16">
         <f>[1]!ESP_power_W(C55,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>35543.191344898885</v>
+        <v>86324.303596685437</v>
       </c>
       <c r="G55" s="23">
         <f t="array" ref="G55:H55">[1]!ESP_dp_atm(C55,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>144.44822794241153</v>
+        <v>136.40005859263061</v>
       </c>
       <c r="H55" s="23">
-        <v>86.321664999510404</v>
+        <v>42.833751253319008</v>
       </c>
       <c r="I55" s="24">
         <f t="shared" ref="I55:I74" si="2">G55+Pintake_</f>
-        <v>178.44822794241153</v>
+        <v>170.40005859263061</v>
       </c>
       <c r="J55" s="24">
         <f t="array" ref="J55:K55">[1]!ESP_dp_atm(C55,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>129.89822917351998</v>
+        <v>125.78095414207429</v>
       </c>
       <c r="K55" s="24">
         <v>0</v>
       </c>
       <c r="L55" s="24">
         <f t="shared" ref="L55:L74" si="3">Pdis-J55</f>
-        <v>20.101770826480021</v>
+        <v>24.219045857925707</v>
       </c>
     </row>
     <row r="56" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C56" s="6">
         <f t="shared" ref="C56:C74" si="4">C55+Qmax/20</f>
-        <v>23</v>
+        <v>105.84033613445399</v>
       </c>
       <c r="D56" s="16">
         <f>[1]!ESP_head_m(C56,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>2153.4436231720601</v>
+        <v>1992.3772994756368</v>
       </c>
       <c r="E56" s="23">
         <f>[1]!ESP_eff_fr(C56,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.14770494788119301</v>
+        <v>0.24706607377105821</v>
       </c>
       <c r="F56" s="16">
         <f>[1]!ESP_power_W(C56,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>36837.222463369806</v>
+        <v>93625.307611725177</v>
       </c>
       <c r="G56" s="23">
         <f t="array" ref="G56:H56">[1]!ESP_dp_atm(C56,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>149.2152089137407</v>
+        <v>134.25283355505113</v>
       </c>
       <c r="H56" s="23">
-        <v>41.828433680022485</v>
+        <v>19.731877046106689</v>
       </c>
       <c r="I56" s="24">
         <f t="shared" si="2"/>
-        <v>183.2152089137407</v>
+        <v>168.25283355505113</v>
       </c>
       <c r="J56" s="24">
         <f t="array" ref="J56:K56">[1]!ESP_dp_atm(C56,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>130.11194789027414</v>
+        <v>124.00259980602249</v>
       </c>
       <c r="K56" s="24">
         <v>0</v>
       </c>
       <c r="L56" s="24">
         <f t="shared" si="3"/>
-        <v>19.888052109725862</v>
+        <v>25.997400193977512</v>
       </c>
     </row>
     <row r="57" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C57" s="6">
         <f t="shared" si="4"/>
-        <v>34.5</v>
+        <v>158.76050420168099</v>
       </c>
       <c r="D57" s="16">
         <f>[1]!ESP_head_m(C57,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>2164.5150132826443</v>
+        <v>1949.8754209286851</v>
       </c>
       <c r="E57" s="23">
         <f>[1]!ESP_eff_fr(C57,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.22007074560149578</v>
+        <v>0.34661116319352486</v>
       </c>
       <c r="F57" s="16">
         <f>[1]!ESP_power_W(C57,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>38177.816369012093</v>
+        <v>99742.016617001282</v>
       </c>
       <c r="G57" s="23">
         <f t="array" ref="G57:H57">[1]!ESP_dp_atm(C57,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>151.53442935936474</v>
+        <v>129.55896132487385</v>
       </c>
       <c r="H57" s="23">
-        <v>26.323782378181193</v>
+        <v>11.914622666376445</v>
       </c>
       <c r="I57" s="24">
         <f t="shared" si="2"/>
-        <v>185.53442935936474</v>
+        <v>163.55896132487385</v>
       </c>
       <c r="J57" s="24">
         <f t="array" ref="J57:K57">[1]!ESP_dp_atm(C57,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>129.6150244864846</v>
+        <v>121.90224195256043</v>
       </c>
       <c r="K57" s="24">
         <v>0</v>
       </c>
       <c r="L57" s="24">
         <f t="shared" si="3"/>
-        <v>20.3849755135154</v>
+        <v>28.097758047439569</v>
       </c>
     </row>
     <row r="58" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C58" s="6">
         <f t="shared" si="4"/>
-        <v>46</v>
+        <v>211.68067226890798</v>
       </c>
       <c r="D58" s="16">
         <f>[1]!ESP_head_m(C58,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>2178.2139599650986</v>
+        <v>1900.5286680580471</v>
       </c>
       <c r="E58" s="23">
         <f>[1]!ESP_eff_fr(C58,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.28974697934124621</v>
+        <v>0.42972372783160095</v>
       </c>
       <c r="F58" s="16">
         <f>[1]!ESP_power_W(C58,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>39502.006083603352</v>
+        <v>105537.22089012666</v>
       </c>
       <c r="G58" s="23">
         <f t="array" ref="G58:H58">[1]!ESP_dp_atm(C58,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>151.86480622847776</v>
+        <v>124.32912107182585</v>
       </c>
       <c r="H58" s="23">
-        <v>18.390096268582468</v>
+        <v>8.1899168504748019</v>
       </c>
       <c r="I58" s="24">
         <f t="shared" si="2"/>
-        <v>185.86480622847776</v>
+        <v>158.32912107182585</v>
       </c>
       <c r="J58" s="24">
         <f t="array" ref="J58:K58">[1]!ESP_dp_atm(C58,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>127.89788529652881</v>
+        <v>119.741440386676</v>
       </c>
       <c r="K58" s="24">
         <v>0</v>
       </c>
       <c r="L58" s="24">
         <f t="shared" si="3"/>
-        <v>22.102114703471187</v>
+        <v>30.258559613323996</v>
       </c>
     </row>
     <row r="59" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C59" s="6">
         <f t="shared" si="4"/>
-        <v>57.5</v>
+        <v>264.60084033613498</v>
       </c>
       <c r="D59" s="16">
         <f>[1]!ESP_head_m(C59,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>2186.1582001833112</v>
+        <v>1849.5102721300209</v>
       </c>
       <c r="E59" s="23">
         <f>[1]!ESP_eff_fr(C59,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.35456296862333708</v>
+        <v>0.49709502902769309</v>
       </c>
       <c r="F59" s="16">
         <f>[1]!ESP_power_W(C59,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>40780.061560281414</v>
+        <v>111537.22999824786</v>
       </c>
       <c r="G59" s="23">
         <f t="array" ref="G59:H59">[1]!ESP_dp_atm(C59,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>149.12891099264306</v>
+        <v>118.97004270113328</v>
       </c>
       <c r="H59" s="23">
-        <v>13.629339492085819</v>
+        <v>6.1313960967266752</v>
       </c>
       <c r="I59" s="24">
         <f t="shared" si="2"/>
-        <v>183.12891099264306</v>
+        <v>152.97004270113328</v>
       </c>
       <c r="J59" s="24">
         <f t="array" ref="J59:K59">[1]!ESP_dp_atm(C59,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>125.18468178738193</v>
+        <v>117.53320885126783</v>
       </c>
       <c r="K59" s="24">
         <v>0</v>
       </c>
       <c r="L59" s="24">
         <f t="shared" si="3"/>
-        <v>24.815318212618067</v>
+        <v>32.46679114873217</v>
       </c>
     </row>
     <row r="60" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C60" s="6">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>317.52100840336198</v>
       </c>
       <c r="D60" s="16">
         <f>[1]!ESP_head_m(C60,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>2181.5694293950837</v>
+        <v>1799.8896840267992</v>
       </c>
       <c r="E60" s="23">
         <f>[1]!ESP_eff_fr(C60,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.41250634910674744</v>
+        <v>0.5502216018699756</v>
       </c>
       <c r="F60" s="16">
         <f>[1]!ESP_power_W(C60,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>42008.326331975681</v>
+        <v>117983.93235985051</v>
       </c>
       <c r="G60" s="23">
         <f t="array" ref="G60:H60">[1]!ESP_dp_atm(C60,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>141.61663407118482</v>
+        <v>112.57883070178053</v>
       </c>
       <c r="H60" s="23">
-        <v>10.60684269886778</v>
+        <v>4.8609233167020989</v>
       </c>
       <c r="I60" s="24">
         <f t="shared" si="2"/>
-        <v>175.61663407118482</v>
+        <v>146.57883070178053</v>
       </c>
       <c r="J60" s="24">
         <f t="array" ref="J60:K60">[1]!ESP_dp_atm(C60,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>121.78732453780756</v>
+        <v>115.18878821786254</v>
       </c>
       <c r="K60" s="24">
         <v>0</v>
       </c>
       <c r="L60" s="24">
         <f t="shared" si="3"/>
-        <v>28.212675462192436</v>
+        <v>34.811211782137462</v>
       </c>
     </row>
     <row r="61" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C61" s="6">
         <f t="shared" si="4"/>
-        <v>80.5</v>
+        <v>370.44117647058897</v>
       </c>
       <c r="D61" s="16">
         <f>[1]!ESP_head_m(C61,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>2159.1797036256626</v>
+        <v>1752.8729284016217</v>
       </c>
       <c r="E61" s="23">
         <f>[1]!ESP_eff_fr(C61,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.46175305817174056</v>
+        <v>0.59110870429801454</v>
       </c>
       <c r="F61" s="16">
         <f>[1]!ESP_power_W(C61,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>43202.054159838532</v>
+        <v>124886.85480656574</v>
       </c>
       <c r="G61" s="23">
         <f t="array" ref="G61:H61">[1]!ESP_dp_atm(C61,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>125.96224353585833</v>
+        <v>103.62864821928306</v>
       </c>
       <c r="H61" s="23">
-        <v>8.776136470432661</v>
+        <v>4.0473989225457672</v>
       </c>
       <c r="I61" s="24">
         <f t="shared" si="2"/>
-        <v>159.96224353585833</v>
+        <v>137.62864821928306</v>
       </c>
       <c r="J61" s="24">
         <f t="array" ref="J61:K61">[1]!ESP_dp_atm(C61,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>117.8945956764406</v>
+        <v>112.52784051217645</v>
       </c>
       <c r="K61" s="24">
         <v>0</v>
       </c>
       <c r="L61" s="24">
         <f t="shared" si="3"/>
-        <v>32.105404323559398</v>
+        <v>37.472159487823546</v>
       </c>
     </row>
     <row r="62" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C62" s="6">
         <f t="shared" si="4"/>
-        <v>92</v>
+        <v>423.36134453781597</v>
       </c>
       <c r="D62" s="16">
         <f>[1]!ESP_head_m(C62,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>2115.1378415412596</v>
+        <v>1708.0429578339363</v>
       </c>
       <c r="E62" s="23">
         <f>[1]!ESP_eff_fr(C62,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.5006973205050621</v>
+        <v>0.62197376620839051</v>
       </c>
       <c r="F62" s="16">
         <f>[1]!ESP_power_W(C62,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>44388.245681676708</v>
+        <v>132075.22214497562</v>
       </c>
       <c r="G62" s="23">
         <f t="array" ref="G62:H62">[1]!ESP_dp_atm(C62,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>87.634642466785294</v>
+        <v>84.145987814340188</v>
       </c>
       <c r="H62" s="23">
-        <v>8.0281717200926863</v>
+        <v>3.6380527847298936</v>
       </c>
       <c r="I62" s="24">
         <f t="shared" si="2"/>
-        <v>121.63464246678529</v>
+        <v>118.14598781434019</v>
       </c>
       <c r="J62" s="24">
         <f t="array" ref="J62:K62">[1]!ESP_dp_atm(C62,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>113.60713402021719</v>
+        <v>109.5195115888577</v>
       </c>
       <c r="K62" s="24">
         <v>0</v>
       </c>
       <c r="L62" s="24">
         <f t="shared" si="3"/>
-        <v>36.392865979782812</v>
+        <v>40.480488411142304</v>
       </c>
     </row>
     <row r="63" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C63" s="6">
         <f t="shared" si="4"/>
-        <v>103.5</v>
+        <v>476.28151260504296</v>
       </c>
       <c r="D63" s="16">
         <f>[1]!ESP_head_m(C63,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>2046.9158265225844</v>
+        <v>1663.6000069845586</v>
       </c>
       <c r="E63" s="23">
         <f>[1]!ESP_eff_fr(C63,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.52798163368513795</v>
+        <v>0.6449498385603244</v>
       </c>
       <c r="F63" s="16">
         <f>[1]!ESP_power_W(C63,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>45598.485060382707</v>
+        <v>139250.01671841939</v>
       </c>
       <c r="G63" s="23">
         <f t="array" ref="G63:H63">[1]!ESP_dp_atm(C63,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
@@ -7908,32 +7906,32 @@
       </c>
       <c r="J63" s="24">
         <f t="array" ref="J63:K63">[1]!ESP_dp_atm(C63,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>108.94414984874581</v>
+        <v>106.09053374658318</v>
       </c>
       <c r="K63" s="24">
         <v>0</v>
       </c>
       <c r="L63" s="24">
         <f t="shared" si="3"/>
-        <v>41.055850151254191</v>
+        <v>43.909466253416824</v>
       </c>
     </row>
     <row r="64" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C64" s="6">
         <f t="shared" si="4"/>
-        <v>115</v>
+        <v>529.20168067226996</v>
       </c>
       <c r="D64" s="16">
         <f>[1]!ESP_head_m(C64,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>1953.2152087383711</v>
+        <v>1616.6019467508263</v>
       </c>
       <c r="E64" s="23">
         <f>[1]!ESP_eff_fr(C64,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.54252675376727288</v>
+        <v>0.66178904248129911</v>
       </c>
       <c r="F64" s="16">
         <f>[1]!ESP_power_W(C64,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>46861.776632366156</v>
+        <v>146036.03796879912</v>
       </c>
       <c r="G64" s="23">
         <f t="array" ref="G64:H64">[1]!ESP_dp_atm(C64,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
@@ -7948,32 +7946,32 @@
       </c>
       <c r="J64" s="24">
         <f t="array" ref="J64:K64">[1]!ESP_dp_atm(C64,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>103.88106374807717</v>
+        <v>102.2008366677702</v>
       </c>
       <c r="K64" s="24">
         <v>0</v>
       </c>
       <c r="L64" s="24">
         <f t="shared" si="3"/>
-        <v>46.118936251922833</v>
+        <v>47.799163332229796</v>
       </c>
     </row>
     <row r="65" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C65" s="6">
         <f t="shared" si="4"/>
-        <v>126.5</v>
+        <v>582.12184873949695</v>
       </c>
       <c r="D65" s="16">
         <f>[1]!ESP_head_m(C65,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>1833.8735072188988</v>
+        <v>1563.2046384217617</v>
       </c>
       <c r="E65" s="23">
         <f>[1]!ESP_eff_fr(C65,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.54356168086884704</v>
+        <v>0.67356601837268415</v>
       </c>
       <c r="F65" s="16">
         <f>[1]!ESP_power_W(C65,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>48197.381555985216</v>
+        <v>152033.96199838593</v>
       </c>
       <c r="G65" s="23">
         <f t="array" ref="G65:H65">[1]!ESP_dp_atm(C65,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
@@ -7988,32 +7986,32 @@
       </c>
       <c r="J65" s="24">
         <f t="array" ref="J65:K65">[1]!ESP_dp_atm(C65,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>98.322338733993689</v>
+        <v>97.745448741169994</v>
       </c>
       <c r="K65" s="24">
         <v>0</v>
       </c>
       <c r="L65" s="24">
         <f t="shared" si="3"/>
-        <v>51.677661266006311</v>
+        <v>52.254551258830006</v>
       </c>
     </row>
     <row r="66" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C66" s="6">
         <f t="shared" si="4"/>
-        <v>138</v>
+        <v>635.04201680672395</v>
       </c>
       <c r="D66" s="16">
         <f>[1]!ESP_head_m(C66,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>1689.7706119295246</v>
+        <v>1498.9022878332253</v>
       </c>
       <c r="E66" s="23">
         <f>[1]!ESP_eff_fr(C66,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.53065364475451593</v>
+        <v>0.68038137501536056</v>
       </c>
       <c r="F66" s="16">
         <f>[1]!ESP_power_W(C66,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>49607.654459978017</v>
+        <v>156872.40113162549</v>
       </c>
       <c r="G66" s="23">
         <f t="array" ref="G66:H66">[1]!ESP_dp_atm(C66,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
@@ -8028,32 +8026,32 @@
       </c>
       <c r="J66" s="24">
         <f t="array" ref="J66:K66">[1]!ESP_dp_atm(C66,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>92.040567938156016</v>
+        <v>92.718298300882822</v>
       </c>
       <c r="K66" s="24">
         <v>0</v>
       </c>
       <c r="L66" s="24">
         <f t="shared" si="3"/>
-        <v>57.959432061843984</v>
+        <v>57.281701699117178</v>
       </c>
     </row>
     <row r="67" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C67" s="6">
         <f t="shared" si="4"/>
-        <v>149.5</v>
+        <v>687.96218487395095</v>
       </c>
       <c r="D67" s="16">
         <f>[1]!ESP_head_m(C67,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>1522.7351858442096</v>
+        <v>1418.7677995230786</v>
       </c>
       <c r="E67" s="23">
         <f>[1]!ESP_eff_fr(C67,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.50373809042140771</v>
+        <v>0.68106513867534202</v>
       </c>
       <c r="F67" s="16">
         <f>[1]!ESP_power_W(C67,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>51070.880091893952</v>
+        <v>160259.96347694422</v>
       </c>
       <c r="G67" s="23">
         <f t="array" ref="G67:H67">[1]!ESP_dp_atm(C67,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
@@ -8068,32 +8066,32 @@
       </c>
       <c r="J67" s="24">
         <f t="array" ref="J67:K67">[1]!ESP_dp_atm(C67,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>84.489528587170099</v>
+        <v>86.818699083493897</v>
       </c>
       <c r="K67" s="24">
         <v>0</v>
       </c>
       <c r="L67" s="24">
         <f t="shared" si="3"/>
-        <v>65.510471412829901</v>
+        <v>63.181300916506103</v>
       </c>
     </row>
     <row r="68" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C68" s="6">
         <f t="shared" si="4"/>
-        <v>161</v>
+        <v>740.88235294117794</v>
       </c>
       <c r="D68" s="16">
         <f>[1]!ESP_head_m(C68,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>1335.4510670190416</v>
+        <v>1317.6931308863382</v>
       </c>
       <c r="E68" s="23">
         <f>[1]!ESP_eff_fr(C68,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.46314866368431995</v>
+        <v>0.67288020220940226</v>
       </c>
       <c r="F68" s="16">
         <f>[1]!ESP_power_W(C68,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>52534.109966525131</v>
+        <v>162037.31248855498</v>
       </c>
       <c r="G68" s="23">
         <f t="array" ref="G68:H68">[1]!ESP_dp_atm(C68,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
@@ -8108,32 +8106,32 @@
       </c>
       <c r="J68" s="24">
         <f t="array" ref="J68:K68">[1]!ESP_dp_atm(C68,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>73.962053602862511</v>
+        <v>79.368193984929746</v>
       </c>
       <c r="K68" s="24">
         <v>0</v>
       </c>
       <c r="L68" s="24">
         <f t="shared" si="3"/>
-        <v>76.037946397137489</v>
+        <v>70.631806015070254</v>
       </c>
     </row>
     <row r="69" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C69" s="6">
         <f t="shared" si="4"/>
-        <v>172.5</v>
+        <v>793.80252100840494</v>
       </c>
       <c r="D69" s="16">
         <f>[1]!ESP_head_m(C69,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>1131.3636706657694</v>
+        <v>1190.6296463303365</v>
       </c>
       <c r="E69" s="23">
         <f>[1]!ESP_eff_fr(C69,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.4096471967609201</v>
+        <v>0.65122577417069416</v>
       </c>
       <c r="F69" s="16">
         <f>[1]!ESP_power_W(C69,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>53905.999014337751</v>
+        <v>162229.22652826336</v>
       </c>
       <c r="G69" s="23">
         <f t="array" ref="G69:H69">[1]!ESP_dp_atm(C69,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
@@ -8148,32 +8146,32 @@
       </c>
       <c r="J69" s="24">
         <f t="array" ref="J69:K69">[1]!ESP_dp_atm(C69,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>56.066443484962051</v>
+        <v>67.477856690487357</v>
       </c>
       <c r="K69" s="24">
         <v>0</v>
       </c>
       <c r="L69" s="24">
         <f t="shared" si="3"/>
-        <v>93.933556515037949</v>
+        <v>82.522143309512643</v>
       </c>
     </row>
     <row r="70" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C70" s="6">
         <f t="shared" si="4"/>
-        <v>184</v>
+        <v>846.72268907563193</v>
       </c>
       <c r="D70" s="16">
         <f>[1]!ESP_head_m(C70,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>914.58639122531849</v>
+        <v>1032.8284714298809</v>
       </c>
       <c r="E70" s="23">
         <f>[1]!ESP_eff_fr(C70,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.34445369385694047</v>
+        <v>0.60934082791437927</v>
       </c>
       <c r="F70" s="16">
         <f>[1]!ESP_power_W(C70,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>55049.642229903497</v>
+        <v>161096.65842727292</v>
       </c>
       <c r="G70" s="23">
         <f t="array" ref="G70:H70">[1]!ESP_dp_atm(C70,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
@@ -8188,32 +8186,32 @@
       </c>
       <c r="J70" s="24">
         <f t="array" ref="J70:K70">[1]!ESP_dp_atm(C70,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>36.253213468122993</v>
+        <v>47.522995648888013</v>
       </c>
       <c r="K70" s="24">
         <v>0</v>
       </c>
       <c r="L70" s="24">
         <f t="shared" si="3"/>
-        <v>113.74678653187701</v>
+        <v>102.47700435111199</v>
       </c>
     </row>
     <row r="71" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C71" s="6">
         <f t="shared" si="4"/>
-        <v>195.5</v>
+        <v>899.64285714285893</v>
       </c>
       <c r="D71" s="16">
         <f>[1]!ESP_head_m(C71,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>689.80700444132776</v>
+        <v>840.08084708240904</v>
       </c>
       <c r="E71" s="23">
         <f>[1]!ESP_eff_fr(C71,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.26927631675138031</v>
+        <v>0.53800755070324824</v>
       </c>
       <c r="F71" s="16">
         <f>[1]!ESP_power_W(C71,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>55775.411320330881</v>
+        <v>159188.79504799168</v>
       </c>
       <c r="G71" s="23">
         <f t="array" ref="G71:H71">[1]!ESP_dp_atm(C71,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
@@ -8228,32 +8226,32 @@
       </c>
       <c r="J71" s="24">
         <f t="array" ref="J71:K71">[1]!ESP_dp_atm(C71,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>16.599476785375032</v>
+        <v>23.57381557984796</v>
       </c>
       <c r="K71" s="24">
         <v>0</v>
       </c>
       <c r="L71" s="24">
         <f t="shared" si="3"/>
-        <v>133.40052321462497</v>
+        <v>126.42618442015204</v>
       </c>
     </row>
     <row r="72" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C72" s="6">
         <f t="shared" si="4"/>
-        <v>207</v>
+        <v>952.56302521008593</v>
       </c>
       <c r="D72" s="16">
         <f>[1]!ESP_head_m(C72,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>462.19406943367369</v>
+        <v>608.95848366314556</v>
       </c>
       <c r="E72" s="23">
         <f>[1]!ESP_eff_fr(C72,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.18634137038169934</v>
+        <v>0.42525479281334011</v>
       </c>
       <c r="F72" s="16">
         <f>[1]!ESP_power_W(C72,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>55833.791353696841</v>
+        <v>157395.11684583852</v>
       </c>
       <c r="G72" s="23">
         <f t="array" ref="G72:H72">[1]!ESP_dp_atm(C72,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
@@ -8281,19 +8279,19 @@
     <row r="73" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C73" s="6">
         <f t="shared" si="4"/>
-        <v>218.5</v>
+        <v>1005.4831932773129</v>
       </c>
       <c r="D73" s="16">
         <f>[1]!ESP_head_m(C73,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>237.30333077199134</v>
+        <v>337.0539151802663</v>
       </c>
       <c r="E73" s="23">
         <f>[1]!ESP_eff_fr(C73,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>9.8423288429019706E-2</v>
+        <v>0.25606151663958077</v>
       </c>
       <c r="F73" s="16">
         <f>[1]!ESP_power_W(C73,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>54908.217407477758</v>
+        <v>156997.45743104647</v>
       </c>
       <c r="G73" s="23">
         <f t="array" ref="G73:H73">[1]!ESP_dp_atm(C73,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
@@ -8321,19 +8319,19 @@
     <row r="74" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C74" s="6">
         <f t="shared" si="4"/>
-        <v>230</v>
+        <v>1058.4033613445399</v>
       </c>
       <c r="D74" s="16">
         <f>[1]!ESP_head_m(C74,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>20.984120549215934</v>
+        <v>23.220853430049914</v>
       </c>
       <c r="E74" s="23">
         <f>[1]!ESP_eff_fr(C74,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>8.8746189033200862E-3</v>
+        <v>1.2060245801388092E-2</v>
       </c>
       <c r="F74" s="16">
         <f>[1]!ESP_power_W(C74,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>52607.911216981076</v>
+        <v>159722.06313047188</v>
       </c>
       <c r="G74" s="23">
         <f t="array" ref="G74:H74">[1]!ESP_dp_atm(C74,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
